--- a/biology/Botanique/Costaria_costata/Costaria_costata.xlsx
+++ b/biology/Botanique/Costaria_costata/Costaria_costata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Costaria costata est une espèce d'algues brunes de la famille des Costariaceae selon AlgaeBase                                           (31 oct. 2012)[1] et NCBI  (31 oct. 2012)[2], ou bien de la famille des Laminariaceae selon Catalogue of Life                                  (31 oct. 2012)[3] et ITIS      (31 oct. 2012)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Costaria costata est une espèce d'algues brunes de la famille des Costariaceae selon AlgaeBase                                           (31 oct. 2012) et NCBI  (31 oct. 2012), ou bien de la famille des Laminariaceae selon Catalogue of Life                                  (31 oct. 2012) et ITIS      (31 oct. 2012).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 oct. 2012)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 oct. 2012) :
 forme Costaria costata f. cuneata Miyabe &amp; Nagai</t>
         </is>
       </c>
